--- a/Översikt VAXHOLM.xlsx
+++ b/Översikt VAXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45372</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,14 +729,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 5968-2023</t>
+          <t>A 39958-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44959</v>
+        <v>45553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>45891</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45891</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>45891</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -977,14 +977,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2229-2023</t>
+          <t>A 32256-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44939</v>
+        <v>45835.6353125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,13 +996,8 @@
           <t>VAXHOLM</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1046,7 +1041,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,14 +1096,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 6004-2026</t>
+          <t>A 5968-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46050</v>
+        <v>44959</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1126,7 +1121,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1163,14 +1158,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 39876-2024</t>
+          <t>A 2229-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45553</v>
+        <v>44939</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1188,7 +1183,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1225,14 +1220,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 7694-2023</t>
+          <t>A 6004-2026</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44967</v>
+        <v>46050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1250,7 +1245,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1287,14 +1282,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28815-2024</t>
+          <t>A 5528-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45478</v>
+        <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1307,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1349,14 +1344,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34926-2022</t>
+          <t>A 7694-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44796</v>
+        <v>44967</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1374,7 +1369,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1418,7 +1413,7 @@
         <v>45314</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1473,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 5528-2023</t>
+          <t>A 39876-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44957</v>
+        <v>45553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1498,7 +1493,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1535,14 +1530,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 39958-2024</t>
+          <t>A 34926-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45553</v>
+        <v>44796</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1560,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1597,14 +1592,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 32256-2025</t>
+          <t>A 28815-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45835.6353125</v>
+        <v>45478</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1616,8 +1611,13 @@
           <t>VAXHOLM</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>

--- a/Översikt VAXHOLM.xlsx
+++ b/Översikt VAXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45372</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         <v>45553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>45891</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45891</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>45891</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>45835.6353125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44959</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44939</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>46050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44967</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45314</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44796</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45478</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt VAXHOLM.xlsx
+++ b/Översikt VAXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45372</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         <v>45553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>45891</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45891</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>45891</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>45835.6353125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44959</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>44939</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>46050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44967</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45314</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44796</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45478</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt VAXHOLM.xlsx
+++ b/Översikt VAXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45372</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,14 +729,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39958-2024</t>
+          <t>A 2229-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45553</v>
+        <v>44939</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -791,14 +791,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 39924-2025</t>
+          <t>A 35838-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45891</v>
+        <v>45147</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 39928-2025</t>
+          <t>A 32256-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45891</v>
+        <v>45835.6353125</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,13 +872,8 @@
           <t>VAXHOLM</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -915,14 +910,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 40001-2025</t>
+          <t>A 39924-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>45891</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -940,7 +935,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -977,14 +972,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 32256-2025</t>
+          <t>A 39928-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45835.6353125</v>
+        <v>45891</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,8 +991,13 @@
           <t>VAXHOLM</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1034,14 +1034,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 35838-2023</t>
+          <t>A 39876-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45147</v>
+        <v>45553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1096,14 +1096,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5968-2023</t>
+          <t>A 40001-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44959</v>
+        <v>45891</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1158,14 +1158,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 2229-2023</t>
+          <t>A 7694-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44939</v>
+        <v>44967</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1220,14 +1220,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 6004-2026</t>
+          <t>A 5968-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46050</v>
+        <v>44959</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 5528-2023</t>
+          <t>A 28815-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44957</v>
+        <v>45478</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1344,14 +1344,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 7694-2023</t>
+          <t>A 6004-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44967</v>
+        <v>46050</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 2727-2024</t>
+          <t>A 34926-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45314</v>
+        <v>44796</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 39876-2024</t>
+          <t>A 2727-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45553</v>
+        <v>45314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1530,14 +1530,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 34926-2022</t>
+          <t>A 5528-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44796</v>
+        <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 28815-2024</t>
+          <t>A 39958-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45478</v>
+        <v>45553</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>

--- a/Översikt VAXHOLM.xlsx
+++ b/Översikt VAXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45372</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,14 +729,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 2229-2023</t>
+          <t>A 40001-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44939</v>
+        <v>45891</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -791,14 +791,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 35838-2023</t>
+          <t>A 39924-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45147</v>
+        <v>45891</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 32256-2025</t>
+          <t>A 39928-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45835.6353125</v>
+        <v>45891</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -872,8 +872,13 @@
           <t>VAXHOLM</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -910,14 +915,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 39924-2025</t>
+          <t>A 28815-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45891</v>
+        <v>45478</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -935,7 +940,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -972,14 +977,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 39928-2025</t>
+          <t>A 39958-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45891</v>
+        <v>45553</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -997,7 +1002,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1034,14 +1039,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 39876-2024</t>
+          <t>A 32256-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45553</v>
+        <v>45835.6353125</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,13 +1058,8 @@
           <t>VAXHOLM</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>0.3</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1096,14 +1096,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 40001-2025</t>
+          <t>A 35838-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45891</v>
+        <v>45147</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1158,14 +1158,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 7694-2023</t>
+          <t>A 5968-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44967</v>
+        <v>44959</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1220,14 +1220,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 5968-2023</t>
+          <t>A 2229-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44959</v>
+        <v>44939</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 28815-2024</t>
+          <t>A 6004-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45478</v>
+        <v>46050</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1344,14 +1344,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 6004-2026</t>
+          <t>A 5528-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46050</v>
+        <v>44957</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34926-2022</t>
+          <t>A 7694-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44796</v>
+        <v>44967</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>45314</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1530,14 +1530,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 5528-2023</t>
+          <t>A 39876-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44957</v>
+        <v>45553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 39958-2024</t>
+          <t>A 34926-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45553</v>
+        <v>44796</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>

--- a/Översikt VAXHOLM.xlsx
+++ b/Översikt VAXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45372</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,14 +729,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 40001-2025</t>
+          <t>A 2229-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45891</v>
+        <v>44939</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -791,14 +791,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 39924-2025</t>
+          <t>A 35838-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45891</v>
+        <v>45147</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 39928-2025</t>
+          <t>A 39876-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45891</v>
+        <v>45553</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>45478</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -977,14 +977,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 39958-2024</t>
+          <t>A 32256-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45553</v>
+        <v>45835.6353125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,13 +996,8 @@
           <t>VAXHOLM</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1039,14 +1034,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 32256-2025</t>
+          <t>A 7694-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45835.6353125</v>
+        <v>44967</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,8 +1053,13 @@
           <t>VAXHOLM</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1096,14 +1096,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 35838-2023</t>
+          <t>A 5968-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45147</v>
+        <v>44959</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1158,14 +1158,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 5968-2023</t>
+          <t>A 34926-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44959</v>
+        <v>44796</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1220,14 +1220,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 2229-2023</t>
+          <t>A 2727-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44939</v>
+        <v>45314</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 6004-2026</t>
+          <t>A 39924-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46050</v>
+        <v>45891</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1344,14 +1344,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 5528-2023</t>
+          <t>A 39928-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44957</v>
+        <v>45891</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 7694-2023</t>
+          <t>A 40001-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44967</v>
+        <v>45891</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2727-2024</t>
+          <t>A 5528-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45314</v>
+        <v>44957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1530,14 +1530,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 39876-2024</t>
+          <t>A 39958-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>45553</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 34926-2022</t>
+          <t>A 6004-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44796</v>
+        <v>46050</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>

--- a/Översikt VAXHOLM.xlsx
+++ b/Översikt VAXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45372</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,14 +729,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 2229-2023</t>
+          <t>A 39958-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44939</v>
+        <v>45553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -791,14 +791,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 35838-2023</t>
+          <t>A 39924-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45147</v>
+        <v>45891</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,14 +853,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 39876-2024</t>
+          <t>A 39928-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45553</v>
+        <v>45891</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -915,14 +915,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 28815-2024</t>
+          <t>A 40001-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45478</v>
+        <v>45891</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>45835.6353125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1034,14 +1034,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 7694-2023</t>
+          <t>A 35838-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44967</v>
+        <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>44959</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,14 +1158,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 34926-2022</t>
+          <t>A 2229-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44796</v>
+        <v>44939</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1220,14 +1220,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 2727-2024</t>
+          <t>A 5528-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45314</v>
+        <v>44957</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 39924-2025</t>
+          <t>A 7694-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45891</v>
+        <v>44967</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1344,14 +1344,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 39928-2025</t>
+          <t>A 2727-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45891</v>
+        <v>45314</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 40001-2025</t>
+          <t>A 6004-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45891</v>
+        <v>46050</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 5528-2023</t>
+          <t>A 39876-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44957</v>
+        <v>45553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1530,14 +1530,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 39958-2024</t>
+          <t>A 34926-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45553</v>
+        <v>44796</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 6004-2026</t>
+          <t>A 28815-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46050</v>
+        <v>45478</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>

--- a/Översikt VAXHOLM.xlsx
+++ b/Översikt VAXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45372</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,14 +729,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39958-2024</t>
+          <t>A 39924-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45553</v>
+        <v>45891</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -791,14 +791,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 39924-2025</t>
+          <t>A 39928-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>45891</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -853,14 +853,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 39928-2025</t>
+          <t>A 40001-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>45891</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -915,14 +915,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 40001-2025</t>
+          <t>A 39958-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45891</v>
+        <v>45553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>45835.6353125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1034,14 +1034,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 35838-2023</t>
+          <t>A 6004-2026</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45147</v>
+        <v>46050</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>44959</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,14 +1158,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 2229-2023</t>
+          <t>A 35838-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44939</v>
+        <v>45147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1220,14 +1220,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 5528-2023</t>
+          <t>A 2229-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44957</v>
+        <v>44939</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 7694-2023</t>
+          <t>A 5528-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44967</v>
+        <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1344,14 +1344,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 2727-2024</t>
+          <t>A 7694-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45314</v>
+        <v>44967</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 6004-2026</t>
+          <t>A 2727-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46050</v>
+        <v>45314</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>45553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44796</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45478</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt VAXHOLM.xlsx
+++ b/Översikt VAXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45372</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         <v>45891</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>45891</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45891</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>45553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>45835.6353125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1034,14 +1034,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 6004-2026</t>
+          <t>A 35838-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46050</v>
+        <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>44959</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1158,14 +1158,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 35838-2023</t>
+          <t>A 6004-2026</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45147</v>
+        <v>46050</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>44939</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44967</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45314</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>45553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>44796</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45478</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt VAXHOLM.xlsx
+++ b/Översikt VAXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45372</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,14 +729,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 39924-2025</t>
+          <t>A 39958-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45891</v>
+        <v>45553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -791,14 +791,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 39928-2025</t>
+          <t>A 39924-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>45891</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -853,14 +853,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 40001-2025</t>
+          <t>A 39928-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>45891</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -915,14 +915,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 39958-2024</t>
+          <t>A 40001-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45553</v>
+        <v>45891</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -977,14 +977,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 32256-2025</t>
+          <t>A 2229-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45835.6353125</v>
+        <v>44939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,8 +996,13 @@
           <t>VAXHOLM</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1041,7 +1046,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,14 +1101,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5968-2023</t>
+          <t>A 32256-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44959</v>
+        <v>45835.6353125</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,13 +1120,8 @@
           <t>VAXHOLM</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1158,14 +1158,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 6004-2026</t>
+          <t>A 39876-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>46050</v>
+        <v>45553</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1220,14 +1220,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 2229-2023</t>
+          <t>A 7694-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44939</v>
+        <v>44967</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 5528-2023</t>
+          <t>A 5968-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1344,14 +1344,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 7694-2023</t>
+          <t>A 6004-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44967</v>
+        <v>46050</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 2727-2024</t>
+          <t>A 28815-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45314</v>
+        <v>45478</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 39876-2024</t>
+          <t>A 34926-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45553</v>
+        <v>44796</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1530,14 +1530,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 34926-2022</t>
+          <t>A 2727-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44796</v>
+        <v>45314</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 28815-2024</t>
+          <t>A 5528-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45478</v>
+        <v>44957</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>

--- a/Översikt VAXHOLM.xlsx
+++ b/Översikt VAXHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45372</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         <v>45553</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>45891</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45891</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         <v>45891</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -977,14 +977,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 2229-2023</t>
+          <t>A 32256-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44939</v>
+        <v>45835.6353125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,13 +996,8 @@
           <t>VAXHOLM</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1046,7 +1041,7 @@
         <v>45147</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1101,14 +1096,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 32256-2025</t>
+          <t>A 5968-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45835.6353125</v>
+        <v>44959</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1120,8 +1115,13 @@
           <t>VAXHOLM</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1158,14 +1158,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 39876-2024</t>
+          <t>A 2229-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45553</v>
+        <v>44939</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1220,14 +1220,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 7694-2023</t>
+          <t>A 6004-2026</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44967</v>
+        <v>46050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1282,14 +1282,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 5968-2023</t>
+          <t>A 5528-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1344,14 +1344,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 6004-2026</t>
+          <t>A 7694-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46050</v>
+        <v>44967</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28815-2024</t>
+          <t>A 2727-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45478</v>
+        <v>45314</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1468,14 +1468,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 34926-2022</t>
+          <t>A 39876-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44796</v>
+        <v>45553</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1530,14 +1530,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 2727-2024</t>
+          <t>A 34926-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45314</v>
+        <v>44796</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1592,14 +1592,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5528-2023</t>
+          <t>A 28815-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44957</v>
+        <v>45478</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
